--- a/database.xlsx
+++ b/database.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicka\Desktop\PA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A4E5B6-ABB1-4CE4-9E17-D6BB9593C52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F114F8-D49F-49E2-B7BC-2339017C2A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{343665A0-4FFE-4829-BDA3-CC6406947C90}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{343665A0-4FFE-4829-BDA3-CC6406947C90}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="nazzouz" sheetId="2" r:id="rId2"/>
     <sheet name="anasim" sheetId="3" r:id="rId3"/>
-    <sheet name="wgillmour" sheetId="4" r:id="rId4"/>
+    <sheet name="wgilmour" sheetId="4" r:id="rId4"/>
     <sheet name="Stocks" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -27,9 +27,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>user id</t>
   </si>
@@ -45,21 +48,12 @@
     <t>password</t>
   </si>
   <si>
-    <t>stock bal</t>
-  </si>
-  <si>
     <t>usd bal</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>root status</t>
   </si>
   <si>
-    <t>avail stock</t>
-  </si>
-  <si>
     <t>nazzouz</t>
   </si>
   <si>
@@ -78,6 +72,9 @@
     <t>william123</t>
   </si>
   <si>
+    <t>Stock</t>
+  </si>
+  <si>
     <t>Stocks</t>
   </si>
   <si>
@@ -94,6 +91,96 @@
   </si>
   <si>
     <t>TSLA</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>ADBE</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>LMT</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Disney</t>
+  </si>
+  <si>
+    <t>Adobe</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Boeing</t>
+  </si>
+  <si>
+    <t>Lockheed Martin</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Amt</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -129,8 +216,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,68 +535,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFEC66E-AF57-4539-8FBD-3BC04573D7F9}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="1" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>35000</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1250</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -516,53 +672,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A82FC2-55A9-4D5E-9505-D2D9EA948385}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>7</v>
       </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -571,53 +752,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9682782-9369-4F31-8E54-8910C07C6E9A}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -626,53 +842,75 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF211AB8-30BF-41E7-85F8-153EA46053AB}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>9</v>
       </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -681,14 +919,289 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F25D5C-EA78-4996-8217-30413E1AC5C3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1">
+        <v>272.23</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>97.71</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <v>157.4</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>183.25</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>96.81</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>101.93</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1">
+        <v>259</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1">
+        <v>197.81</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1">
+        <v>121.2</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1">
+        <v>94.22</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1">
+        <v>362.88</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1">
+        <v>305.13</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1">
+        <v>204.77</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1">
+        <v>475.7</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1">
+        <v>29.16</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>